--- a/data/data_calendarSpreads/APOLLOTYRE.xlsx
+++ b/data/data_calendarSpreads/APOLLOTYRE.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2736,6 +2736,17 @@
         <v>210.55</v>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" s="3" t="n">
+        <v>43585.48977204587</v>
+      </c>
+      <c r="B213" t="n">
+        <v>207</v>
+      </c>
+      <c r="C213" t="n">
+        <v>207.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
